--- a/src/test/resources/ids.xlsx
+++ b/src/test/resources/ids.xlsx
@@ -465,8 +465,8 @@
       <c r="C2" s="0">
         <v>30</v>
       </c>
-      <c r="D2" s="0">
-        <v>40</v>
+      <c r="D2" s="0" t="n">
+        <v>60.0</v>
       </c>
       <c r="E2" s="0">
         <v>50</v>

--- a/src/test/resources/ids.xlsx
+++ b/src/test/resources/ids.xlsx
@@ -457,7 +457,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="n" s="0">
-        <v>98.0</v>
+        <v>119.0</v>
       </c>
       <c r="B2" s="0">
         <v>20</v>

--- a/src/test/resources/ids.xlsx
+++ b/src/test/resources/ids.xlsx
@@ -457,7 +457,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="n" s="0">
-        <v>119.0</v>
+        <v>121.0</v>
       </c>
       <c r="B2" s="0">
         <v>20</v>

--- a/src/test/resources/ids.xlsx
+++ b/src/test/resources/ids.xlsx
@@ -457,7 +457,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="n" s="0">
-        <v>121.0</v>
+        <v>123.0</v>
       </c>
       <c r="B2" s="0">
         <v>20</v>

--- a/src/test/resources/ids.xlsx
+++ b/src/test/resources/ids.xlsx
@@ -457,7 +457,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="n" s="0">
-        <v>119.0</v>
+        <v>120.0</v>
       </c>
       <c r="B2" s="0">
         <v>20</v>
@@ -465,8 +465,8 @@
       <c r="C2" s="0">
         <v>30</v>
       </c>
-      <c r="D2" s="0">
-        <v>40</v>
+      <c r="D2" s="0" t="n">
+        <v>76.0</v>
       </c>
       <c r="E2" s="0">
         <v>50</v>

--- a/src/test/resources/ids.xlsx
+++ b/src/test/resources/ids.xlsx
@@ -457,7 +457,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="n" s="0">
-        <v>120.0</v>
+        <v>126.0</v>
       </c>
       <c r="B2" s="0">
         <v>20</v>

--- a/src/test/resources/ids.xlsx
+++ b/src/test/resources/ids.xlsx
@@ -457,7 +457,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="n" s="0">
-        <v>126.0</v>
+        <v>131.0</v>
       </c>
       <c r="B2" s="0">
         <v>20</v>
@@ -466,7 +466,7 @@
         <v>30</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>76.0</v>
+        <v>90.0</v>
       </c>
       <c r="E2" s="0">
         <v>50</v>

--- a/src/test/resources/ids.xlsx
+++ b/src/test/resources/ids.xlsx
@@ -466,7 +466,7 @@
         <v>30</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>90.0</v>
+        <v>103.0</v>
       </c>
       <c r="E2" s="0">
         <v>50</v>

--- a/src/test/resources/ids.xlsx
+++ b/src/test/resources/ids.xlsx
@@ -466,7 +466,7 @@
         <v>30</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>103.0</v>
+        <v>107.0</v>
       </c>
       <c r="E2" s="0">
         <v>50</v>

--- a/src/test/resources/ids.xlsx
+++ b/src/test/resources/ids.xlsx
@@ -457,7 +457,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="n" s="0">
-        <v>131.0</v>
+        <v>139.0</v>
       </c>
       <c r="B2" s="0">
         <v>20</v>

--- a/src/test/resources/ids.xlsx
+++ b/src/test/resources/ids.xlsx
@@ -457,13 +457,13 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="n" s="0">
-        <v>120.0</v>
+        <v>130.0</v>
       </c>
       <c r="B2" s="0">
         <v>20</v>
       </c>
-      <c r="C2" s="0">
-        <v>30</v>
+      <c r="C2" s="0" t="n">
+        <v>234.0</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>76.0</v>

--- a/src/test/resources/ids.xlsx
+++ b/src/test/resources/ids.xlsx
@@ -457,7 +457,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="n" s="0">
-        <v>139.0</v>
+        <v>144.0</v>
       </c>
       <c r="B2" s="0">
         <v>20</v>
@@ -466,7 +466,7 @@
         <v>30</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>107.0</v>
+        <v>109.0</v>
       </c>
       <c r="E2" s="0">
         <v>50</v>

--- a/src/test/resources/ids.xlsx
+++ b/src/test/resources/ids.xlsx
@@ -457,7 +457,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="n" s="0">
-        <v>131.0</v>
+        <v>136.0</v>
       </c>
       <c r="B2" s="0">
         <v>20</v>

--- a/src/test/resources/ids.xlsx
+++ b/src/test/resources/ids.xlsx
@@ -457,16 +457,16 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="n" s="0">
-        <v>144.0</v>
+        <v>152.0</v>
       </c>
       <c r="B2" s="0">
         <v>20</v>
       </c>
-      <c r="C2" s="0">
-        <v>30</v>
+      <c r="C2" s="0" t="n">
+        <v>242.0</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>109.0</v>
+        <v>128.0</v>
       </c>
       <c r="E2" s="0">
         <v>50</v>

--- a/src/test/resources/ids.xlsx
+++ b/src/test/resources/ids.xlsx
@@ -457,16 +457,16 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="n" s="0">
-        <v>152.0</v>
+        <v>160.0</v>
       </c>
       <c r="B2" s="0">
         <v>20</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>242.0</v>
+        <v>267.0</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>128.0</v>
+        <v>133.0</v>
       </c>
       <c r="E2" s="0">
         <v>50</v>
